--- a/public/templates/template_idp.xlsx
+++ b/public/templates/template_idp.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="IDP" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Master" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>employee_id</t>
   </si>
@@ -46,7 +47,10 @@
     <t>result_evidence</t>
   </si>
   <si>
-    <t>07060121100</t>
+    <t>0242814</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>Soft Competency</t>
@@ -62,6 +66,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>25-08-2025</t>
   </si>
   <si>
     <r>
@@ -289,9 +296,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
@@ -329,7 +333,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -415,79 +419,33 @@
         <color rgb="FFAAAAAA"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf quotePrefix="1" borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -497,6 +455,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -704,9 +666,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="13" width="12.63"/>
-    <col customWidth="1" hidden="1" min="14" max="17" width="12.63"/>
-    <col customWidth="1" min="18" max="36" width="12.63"/>
+    <col customWidth="1" min="1" max="26" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -745,9 +705,9 @@
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="4"/>
+      <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -758,61 +718,47 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9">
-        <v>45690.0</v>
-      </c>
-      <c r="I2" s="9">
-        <v>45690.0</v>
-      </c>
-      <c r="J2" s="9">
-        <v>45690.0</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="14"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -822,39 +768,25 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="14"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -864,39 +796,25 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="14"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -906,39 +824,25 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="14"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -948,16 +852,6 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3"/>
@@ -966,21 +860,17 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="14"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -990,16 +880,6 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
@@ -1008,21 +888,17 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="14"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1032,16 +908,6 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
@@ -1050,21 +916,17 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="14"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1074,16 +936,6 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
@@ -1098,15 +950,11 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="14"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1116,16 +964,6 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
@@ -1140,15 +978,11 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="14"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1158,16 +992,6 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
@@ -1182,15 +1006,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="14"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1200,16 +1020,6 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
@@ -1224,15 +1034,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" s="14"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1242,16 +1048,6 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
@@ -1266,15 +1062,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="14"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1284,16 +1076,6 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
@@ -1308,15 +1090,11 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="14"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -1326,16 +1104,6 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
@@ -1350,15 +1118,11 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q15" s="14"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1368,16 +1132,6 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
@@ -1392,15 +1146,11 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="14"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -1410,16 +1160,6 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
@@ -1434,15 +1174,11 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="14"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -1452,16 +1188,6 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
@@ -1476,15 +1202,11 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="14"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -1494,16 +1216,6 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
@@ -1518,15 +1230,11 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" s="14"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -1536,16 +1244,6 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
@@ -1560,15 +1258,11 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="14"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -1578,16 +1272,6 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
@@ -1602,15 +1286,11 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q21" s="14"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -1620,16 +1300,6 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
@@ -1644,15 +1314,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q22" s="14"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -1662,16 +1328,6 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
@@ -1686,15 +1342,11 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="14"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -1704,16 +1356,6 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
@@ -1728,15 +1370,11 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q24" s="14"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -1746,16 +1384,6 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
@@ -1770,15 +1398,11 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q25" s="14"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -1788,16 +1412,6 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
@@ -1812,15 +1426,11 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="13"/>
-      <c r="P26" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q26" s="14"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -1830,16 +1440,6 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
@@ -1854,15 +1454,11 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q27" s="14"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -1872,16 +1468,6 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
@@ -1896,15 +1482,11 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" s="13"/>
-      <c r="P28" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="14"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -1914,16 +1496,6 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
@@ -1938,15 +1510,11 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q29" s="14"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -1956,16 +1524,6 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
@@ -1980,15 +1538,11 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q30" s="14"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -1998,16 +1552,6 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
@@ -2022,15 +1566,11 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q31" s="14"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -2040,16 +1580,6 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
@@ -2064,15 +1594,11 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q32" s="14"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -2082,16 +1608,6 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
@@ -2106,15 +1622,11 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q33" s="14"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -2124,16 +1636,6 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
@@ -2148,15 +1650,11 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q34" s="14"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -2166,16 +1664,6 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
@@ -2190,15 +1678,11 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q35" s="14"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -2208,16 +1692,6 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
@@ -2232,15 +1706,11 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q36" s="14"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -2250,16 +1720,6 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
@@ -2274,15 +1734,11 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q37" s="14"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -2292,16 +1748,6 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
@@ -2317,9 +1763,9 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="16"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="16"/>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -2330,16 +1776,6 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
@@ -2368,16 +1804,6 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
@@ -2406,16 +1832,6 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
@@ -2444,16 +1860,6 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
@@ -2482,16 +1888,6 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
@@ -2520,16 +1916,6 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
@@ -2558,16 +1944,6 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
@@ -2596,16 +1972,6 @@
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
-      <c r="AJ45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
@@ -2634,16 +2000,6 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="3"/>
-      <c r="AH46" s="3"/>
-      <c r="AI46" s="3"/>
-      <c r="AJ46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
@@ -2672,16 +2028,6 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
@@ -2710,16 +2056,6 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
@@ -2748,16 +2084,6 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
@@ -2786,16 +2112,6 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
@@ -2824,16 +2140,6 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="3"/>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
-      <c r="AJ51" s="3"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
@@ -2862,16 +2168,6 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
@@ -2900,16 +2196,6 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
@@ -2938,16 +2224,6 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
@@ -2976,16 +2252,6 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
-      <c r="AH55" s="3"/>
-      <c r="AI55" s="3"/>
-      <c r="AJ55" s="3"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
@@ -3014,16 +2280,6 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
-      <c r="AI56" s="3"/>
-      <c r="AJ56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
@@ -3052,16 +2308,6 @@
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
-      <c r="AI57" s="3"/>
-      <c r="AJ57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
@@ -3090,16 +2336,6 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
@@ -3128,16 +2364,6 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
@@ -3166,16 +2392,6 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3"/>
-      <c r="AH60" s="3"/>
-      <c r="AI60" s="3"/>
-      <c r="AJ60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
@@ -3204,16 +2420,6 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
-      <c r="AG61" s="3"/>
-      <c r="AH61" s="3"/>
-      <c r="AI61" s="3"/>
-      <c r="AJ61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
@@ -3242,16 +2448,6 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-      <c r="AH62" s="3"/>
-      <c r="AI62" s="3"/>
-      <c r="AJ62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
@@ -3280,16 +2476,6 @@
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
@@ -3318,16 +2504,6 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-      <c r="AJ64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
@@ -3356,16 +2532,6 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
-      <c r="AJ65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
@@ -3394,16 +2560,6 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-      <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
-      <c r="AJ66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
@@ -3432,16 +2588,6 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="3"/>
-      <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
-      <c r="AJ67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
@@ -3470,16 +2616,6 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-      <c r="AJ68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
@@ -3508,16 +2644,6 @@
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
-      <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
-      <c r="AJ69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
@@ -3546,16 +2672,6 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="3"/>
-      <c r="AG70" s="3"/>
-      <c r="AH70" s="3"/>
-      <c r="AI70" s="3"/>
-      <c r="AJ70" s="3"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
@@ -3584,16 +2700,6 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-      <c r="AF71" s="3"/>
-      <c r="AG71" s="3"/>
-      <c r="AH71" s="3"/>
-      <c r="AI71" s="3"/>
-      <c r="AJ71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
@@ -3622,16 +2728,6 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="3"/>
-      <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
-      <c r="AJ72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
@@ -3660,16 +2756,6 @@
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-      <c r="AH73" s="3"/>
-      <c r="AI73" s="3"/>
-      <c r="AJ73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
@@ -3698,16 +2784,6 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="3"/>
-      <c r="AH74" s="3"/>
-      <c r="AI74" s="3"/>
-      <c r="AJ74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
@@ -3736,16 +2812,6 @@
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
-      <c r="AG75" s="3"/>
-      <c r="AH75" s="3"/>
-      <c r="AI75" s="3"/>
-      <c r="AJ75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
@@ -3774,16 +2840,6 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
-      <c r="AG76" s="3"/>
-      <c r="AH76" s="3"/>
-      <c r="AI76" s="3"/>
-      <c r="AJ76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
@@ -3812,16 +2868,6 @@
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-      <c r="AF77" s="3"/>
-      <c r="AG77" s="3"/>
-      <c r="AH77" s="3"/>
-      <c r="AI77" s="3"/>
-      <c r="AJ77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
@@ -3850,16 +2896,6 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
-      <c r="AG78" s="3"/>
-      <c r="AH78" s="3"/>
-      <c r="AI78" s="3"/>
-      <c r="AJ78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
@@ -3888,16 +2924,6 @@
       <c r="X79" s="3"/>
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-      <c r="AF79" s="3"/>
-      <c r="AG79" s="3"/>
-      <c r="AH79" s="3"/>
-      <c r="AI79" s="3"/>
-      <c r="AJ79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
@@ -3926,16 +2952,6 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-      <c r="AF80" s="3"/>
-      <c r="AG80" s="3"/>
-      <c r="AH80" s="3"/>
-      <c r="AI80" s="3"/>
-      <c r="AJ80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
@@ -3964,16 +2980,6 @@
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
-      <c r="AF81" s="3"/>
-      <c r="AG81" s="3"/>
-      <c r="AH81" s="3"/>
-      <c r="AI81" s="3"/>
-      <c r="AJ81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
@@ -4002,16 +3008,6 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-      <c r="AF82" s="3"/>
-      <c r="AG82" s="3"/>
-      <c r="AH82" s="3"/>
-      <c r="AI82" s="3"/>
-      <c r="AJ82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
@@ -4040,16 +3036,6 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
-      <c r="AG83" s="3"/>
-      <c r="AH83" s="3"/>
-      <c r="AI83" s="3"/>
-      <c r="AJ83" s="3"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
@@ -4078,26 +3064,15 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-      <c r="AE84" s="3"/>
-      <c r="AF84" s="3"/>
-      <c r="AG84" s="3"/>
-      <c r="AH84" s="3"/>
-      <c r="AI84" s="3"/>
-      <c r="AJ84" s="3"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -4116,16 +3091,6 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
-      <c r="AA85" s="3"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
-      <c r="AF85" s="3"/>
-      <c r="AG85" s="3"/>
-      <c r="AH85" s="3"/>
-      <c r="AI85" s="3"/>
-      <c r="AJ85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
@@ -4154,16 +3119,6 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
-      <c r="AF86" s="3"/>
-      <c r="AG86" s="3"/>
-      <c r="AH86" s="3"/>
-      <c r="AI86" s="3"/>
-      <c r="AJ86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
@@ -4192,16 +3147,6 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-      <c r="AF87" s="3"/>
-      <c r="AG87" s="3"/>
-      <c r="AH87" s="3"/>
-      <c r="AI87" s="3"/>
-      <c r="AJ87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
@@ -4230,16 +3175,6 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-      <c r="AF88" s="3"/>
-      <c r="AG88" s="3"/>
-      <c r="AH88" s="3"/>
-      <c r="AI88" s="3"/>
-      <c r="AJ88" s="3"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
@@ -4268,16 +3203,6 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="3"/>
-      <c r="AD89" s="3"/>
-      <c r="AE89" s="3"/>
-      <c r="AF89" s="3"/>
-      <c r="AG89" s="3"/>
-      <c r="AH89" s="3"/>
-      <c r="AI89" s="3"/>
-      <c r="AJ89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
@@ -4306,16 +3231,6 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
-      <c r="AD90" s="3"/>
-      <c r="AE90" s="3"/>
-      <c r="AF90" s="3"/>
-      <c r="AG90" s="3"/>
-      <c r="AH90" s="3"/>
-      <c r="AI90" s="3"/>
-      <c r="AJ90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
@@ -4344,16 +3259,6 @@
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
-      <c r="AE91" s="3"/>
-      <c r="AF91" s="3"/>
-      <c r="AG91" s="3"/>
-      <c r="AH91" s="3"/>
-      <c r="AI91" s="3"/>
-      <c r="AJ91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
@@ -4382,16 +3287,6 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
-      <c r="AE92" s="3"/>
-      <c r="AF92" s="3"/>
-      <c r="AG92" s="3"/>
-      <c r="AH92" s="3"/>
-      <c r="AI92" s="3"/>
-      <c r="AJ92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
@@ -4420,16 +3315,6 @@
       <c r="X93" s="3"/>
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="3"/>
-      <c r="AD93" s="3"/>
-      <c r="AE93" s="3"/>
-      <c r="AF93" s="3"/>
-      <c r="AG93" s="3"/>
-      <c r="AH93" s="3"/>
-      <c r="AI93" s="3"/>
-      <c r="AJ93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
@@ -4458,16 +3343,6 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="3"/>
-      <c r="AD94" s="3"/>
-      <c r="AE94" s="3"/>
-      <c r="AF94" s="3"/>
-      <c r="AG94" s="3"/>
-      <c r="AH94" s="3"/>
-      <c r="AI94" s="3"/>
-      <c r="AJ94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
@@ -4496,16 +3371,6 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
-      <c r="AF95" s="3"/>
-      <c r="AG95" s="3"/>
-      <c r="AH95" s="3"/>
-      <c r="AI95" s="3"/>
-      <c r="AJ95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
@@ -4534,16 +3399,6 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-      <c r="AF96" s="3"/>
-      <c r="AG96" s="3"/>
-      <c r="AH96" s="3"/>
-      <c r="AI96" s="3"/>
-      <c r="AJ96" s="3"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
@@ -4572,16 +3427,6 @@
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
-      <c r="AF97" s="3"/>
-      <c r="AG97" s="3"/>
-      <c r="AH97" s="3"/>
-      <c r="AI97" s="3"/>
-      <c r="AJ97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
@@ -4610,16 +3455,6 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-      <c r="AF98" s="3"/>
-      <c r="AG98" s="3"/>
-      <c r="AH98" s="3"/>
-      <c r="AI98" s="3"/>
-      <c r="AJ98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
@@ -4648,16 +3483,6 @@
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-      <c r="AF99" s="3"/>
-      <c r="AG99" s="3"/>
-      <c r="AH99" s="3"/>
-      <c r="AI99" s="3"/>
-      <c r="AJ99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
@@ -4686,16 +3511,6 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-      <c r="AF100" s="3"/>
-      <c r="AG100" s="3"/>
-      <c r="AH100" s="3"/>
-      <c r="AI100" s="3"/>
-      <c r="AJ100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
@@ -4724,16 +3539,6 @@
       <c r="X101" s="3"/>
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-      <c r="AF101" s="3"/>
-      <c r="AG101" s="3"/>
-      <c r="AH101" s="3"/>
-      <c r="AI101" s="3"/>
-      <c r="AJ101" s="3"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
@@ -4762,16 +3567,6 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-      <c r="AF102" s="3"/>
-      <c r="AG102" s="3"/>
-      <c r="AH102" s="3"/>
-      <c r="AI102" s="3"/>
-      <c r="AJ102" s="3"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
@@ -4800,16 +3595,6 @@
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
-      <c r="AF103" s="3"/>
-      <c r="AG103" s="3"/>
-      <c r="AH103" s="3"/>
-      <c r="AI103" s="3"/>
-      <c r="AJ103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
@@ -4838,16 +3623,6 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
-      <c r="AA104" s="3"/>
-      <c r="AB104" s="3"/>
-      <c r="AC104" s="3"/>
-      <c r="AD104" s="3"/>
-      <c r="AE104" s="3"/>
-      <c r="AF104" s="3"/>
-      <c r="AG104" s="3"/>
-      <c r="AH104" s="3"/>
-      <c r="AI104" s="3"/>
-      <c r="AJ104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
@@ -4876,16 +3651,6 @@
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
-      <c r="AA105" s="3"/>
-      <c r="AB105" s="3"/>
-      <c r="AC105" s="3"/>
-      <c r="AD105" s="3"/>
-      <c r="AE105" s="3"/>
-      <c r="AF105" s="3"/>
-      <c r="AG105" s="3"/>
-      <c r="AH105" s="3"/>
-      <c r="AI105" s="3"/>
-      <c r="AJ105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
@@ -4914,16 +3679,6 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
-      <c r="AA106" s="3"/>
-      <c r="AB106" s="3"/>
-      <c r="AC106" s="3"/>
-      <c r="AD106" s="3"/>
-      <c r="AE106" s="3"/>
-      <c r="AF106" s="3"/>
-      <c r="AG106" s="3"/>
-      <c r="AH106" s="3"/>
-      <c r="AI106" s="3"/>
-      <c r="AJ106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
@@ -4952,16 +3707,6 @@
       <c r="X107" s="3"/>
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
-      <c r="AA107" s="3"/>
-      <c r="AB107" s="3"/>
-      <c r="AC107" s="3"/>
-      <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
-      <c r="AF107" s="3"/>
-      <c r="AG107" s="3"/>
-      <c r="AH107" s="3"/>
-      <c r="AI107" s="3"/>
-      <c r="AJ107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
@@ -4990,16 +3735,6 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
-      <c r="AA108" s="3"/>
-      <c r="AB108" s="3"/>
-      <c r="AC108" s="3"/>
-      <c r="AD108" s="3"/>
-      <c r="AE108" s="3"/>
-      <c r="AF108" s="3"/>
-      <c r="AG108" s="3"/>
-      <c r="AH108" s="3"/>
-      <c r="AI108" s="3"/>
-      <c r="AJ108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
@@ -5028,16 +3763,6 @@
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
-      <c r="AA109" s="3"/>
-      <c r="AB109" s="3"/>
-      <c r="AC109" s="3"/>
-      <c r="AD109" s="3"/>
-      <c r="AE109" s="3"/>
-      <c r="AF109" s="3"/>
-      <c r="AG109" s="3"/>
-      <c r="AH109" s="3"/>
-      <c r="AI109" s="3"/>
-      <c r="AJ109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
@@ -5066,16 +3791,6 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
-      <c r="AA110" s="3"/>
-      <c r="AB110" s="3"/>
-      <c r="AC110" s="3"/>
-      <c r="AD110" s="3"/>
-      <c r="AE110" s="3"/>
-      <c r="AF110" s="3"/>
-      <c r="AG110" s="3"/>
-      <c r="AH110" s="3"/>
-      <c r="AI110" s="3"/>
-      <c r="AJ110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
@@ -5104,16 +3819,6 @@
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
-      <c r="AA111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AC111" s="3"/>
-      <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
-      <c r="AF111" s="3"/>
-      <c r="AG111" s="3"/>
-      <c r="AH111" s="3"/>
-      <c r="AI111" s="3"/>
-      <c r="AJ111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
@@ -5142,16 +3847,6 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
-      <c r="AA112" s="3"/>
-      <c r="AB112" s="3"/>
-      <c r="AC112" s="3"/>
-      <c r="AD112" s="3"/>
-      <c r="AE112" s="3"/>
-      <c r="AF112" s="3"/>
-      <c r="AG112" s="3"/>
-      <c r="AH112" s="3"/>
-      <c r="AI112" s="3"/>
-      <c r="AJ112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
@@ -5180,16 +3875,6 @@
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-      <c r="AF113" s="3"/>
-      <c r="AG113" s="3"/>
-      <c r="AH113" s="3"/>
-      <c r="AI113" s="3"/>
-      <c r="AJ113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
@@ -5218,16 +3903,6 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-      <c r="AF114" s="3"/>
-      <c r="AG114" s="3"/>
-      <c r="AH114" s="3"/>
-      <c r="AI114" s="3"/>
-      <c r="AJ114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
@@ -5256,16 +3931,6 @@
       <c r="X115" s="3"/>
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-      <c r="AF115" s="3"/>
-      <c r="AG115" s="3"/>
-      <c r="AH115" s="3"/>
-      <c r="AI115" s="3"/>
-      <c r="AJ115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
@@ -5294,16 +3959,6 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
-      <c r="AA116" s="3"/>
-      <c r="AB116" s="3"/>
-      <c r="AC116" s="3"/>
-      <c r="AD116" s="3"/>
-      <c r="AE116" s="3"/>
-      <c r="AF116" s="3"/>
-      <c r="AG116" s="3"/>
-      <c r="AH116" s="3"/>
-      <c r="AI116" s="3"/>
-      <c r="AJ116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
@@ -5332,16 +3987,6 @@
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
-      <c r="AA117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AC117" s="3"/>
-      <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
-      <c r="AF117" s="3"/>
-      <c r="AG117" s="3"/>
-      <c r="AH117" s="3"/>
-      <c r="AI117" s="3"/>
-      <c r="AJ117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
@@ -5370,16 +4015,6 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
-      <c r="AA118" s="3"/>
-      <c r="AB118" s="3"/>
-      <c r="AC118" s="3"/>
-      <c r="AD118" s="3"/>
-      <c r="AE118" s="3"/>
-      <c r="AF118" s="3"/>
-      <c r="AG118" s="3"/>
-      <c r="AH118" s="3"/>
-      <c r="AI118" s="3"/>
-      <c r="AJ118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
@@ -5408,16 +4043,6 @@
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
-      <c r="AA119" s="3"/>
-      <c r="AB119" s="3"/>
-      <c r="AC119" s="3"/>
-      <c r="AD119" s="3"/>
-      <c r="AE119" s="3"/>
-      <c r="AF119" s="3"/>
-      <c r="AG119" s="3"/>
-      <c r="AH119" s="3"/>
-      <c r="AI119" s="3"/>
-      <c r="AJ119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
@@ -5446,16 +4071,6 @@
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
-      <c r="AF120" s="3"/>
-      <c r="AG120" s="3"/>
-      <c r="AH120" s="3"/>
-      <c r="AI120" s="3"/>
-      <c r="AJ120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
@@ -5484,16 +4099,6 @@
       <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
-      <c r="AA121" s="3"/>
-      <c r="AB121" s="3"/>
-      <c r="AC121" s="3"/>
-      <c r="AD121" s="3"/>
-      <c r="AE121" s="3"/>
-      <c r="AF121" s="3"/>
-      <c r="AG121" s="3"/>
-      <c r="AH121" s="3"/>
-      <c r="AI121" s="3"/>
-      <c r="AJ121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
@@ -5522,16 +4127,6 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
-      <c r="AA122" s="3"/>
-      <c r="AB122" s="3"/>
-      <c r="AC122" s="3"/>
-      <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
-      <c r="AF122" s="3"/>
-      <c r="AG122" s="3"/>
-      <c r="AH122" s="3"/>
-      <c r="AI122" s="3"/>
-      <c r="AJ122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
@@ -5560,16 +4155,6 @@
       <c r="X123" s="3"/>
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
-      <c r="AA123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
-      <c r="AF123" s="3"/>
-      <c r="AG123" s="3"/>
-      <c r="AH123" s="3"/>
-      <c r="AI123" s="3"/>
-      <c r="AJ123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
@@ -5598,16 +4183,6 @@
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
-      <c r="AC124" s="3"/>
-      <c r="AD124" s="3"/>
-      <c r="AE124" s="3"/>
-      <c r="AF124" s="3"/>
-      <c r="AG124" s="3"/>
-      <c r="AH124" s="3"/>
-      <c r="AI124" s="3"/>
-      <c r="AJ124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
@@ -5636,16 +4211,6 @@
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
-      <c r="AA125" s="3"/>
-      <c r="AB125" s="3"/>
-      <c r="AC125" s="3"/>
-      <c r="AD125" s="3"/>
-      <c r="AE125" s="3"/>
-      <c r="AF125" s="3"/>
-      <c r="AG125" s="3"/>
-      <c r="AH125" s="3"/>
-      <c r="AI125" s="3"/>
-      <c r="AJ125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
@@ -5674,16 +4239,6 @@
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
-      <c r="AA126" s="3"/>
-      <c r="AB126" s="3"/>
-      <c r="AC126" s="3"/>
-      <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
-      <c r="AF126" s="3"/>
-      <c r="AG126" s="3"/>
-      <c r="AH126" s="3"/>
-      <c r="AI126" s="3"/>
-      <c r="AJ126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
@@ -5712,16 +4267,6 @@
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
-      <c r="AA127" s="3"/>
-      <c r="AB127" s="3"/>
-      <c r="AC127" s="3"/>
-      <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
-      <c r="AF127" s="3"/>
-      <c r="AG127" s="3"/>
-      <c r="AH127" s="3"/>
-      <c r="AI127" s="3"/>
-      <c r="AJ127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
@@ -5750,16 +4295,6 @@
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
-      <c r="AA128" s="3"/>
-      <c r="AB128" s="3"/>
-      <c r="AC128" s="3"/>
-      <c r="AD128" s="3"/>
-      <c r="AE128" s="3"/>
-      <c r="AF128" s="3"/>
-      <c r="AG128" s="3"/>
-      <c r="AH128" s="3"/>
-      <c r="AI128" s="3"/>
-      <c r="AJ128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
@@ -5788,16 +4323,6 @@
       <c r="X129" s="3"/>
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
-      <c r="AA129" s="3"/>
-      <c r="AB129" s="3"/>
-      <c r="AC129" s="3"/>
-      <c r="AD129" s="3"/>
-      <c r="AE129" s="3"/>
-      <c r="AF129" s="3"/>
-      <c r="AG129" s="3"/>
-      <c r="AH129" s="3"/>
-      <c r="AI129" s="3"/>
-      <c r="AJ129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
@@ -5826,16 +4351,6 @@
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
-      <c r="AA130" s="3"/>
-      <c r="AB130" s="3"/>
-      <c r="AC130" s="3"/>
-      <c r="AD130" s="3"/>
-      <c r="AE130" s="3"/>
-      <c r="AF130" s="3"/>
-      <c r="AG130" s="3"/>
-      <c r="AH130" s="3"/>
-      <c r="AI130" s="3"/>
-      <c r="AJ130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="3"/>
@@ -5864,16 +4379,6 @@
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
-      <c r="AA131" s="3"/>
-      <c r="AB131" s="3"/>
-      <c r="AC131" s="3"/>
-      <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
-      <c r="AF131" s="3"/>
-      <c r="AG131" s="3"/>
-      <c r="AH131" s="3"/>
-      <c r="AI131" s="3"/>
-      <c r="AJ131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
@@ -5902,16 +4407,6 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
-      <c r="AA132" s="3"/>
-      <c r="AB132" s="3"/>
-      <c r="AC132" s="3"/>
-      <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
-      <c r="AF132" s="3"/>
-      <c r="AG132" s="3"/>
-      <c r="AH132" s="3"/>
-      <c r="AI132" s="3"/>
-      <c r="AJ132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
@@ -5940,16 +4435,6 @@
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
-      <c r="AA133" s="3"/>
-      <c r="AB133" s="3"/>
-      <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-      <c r="AF133" s="3"/>
-      <c r="AG133" s="3"/>
-      <c r="AH133" s="3"/>
-      <c r="AI133" s="3"/>
-      <c r="AJ133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
@@ -5978,16 +4463,6 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
-      <c r="AA134" s="3"/>
-      <c r="AB134" s="3"/>
-      <c r="AC134" s="3"/>
-      <c r="AD134" s="3"/>
-      <c r="AE134" s="3"/>
-      <c r="AF134" s="3"/>
-      <c r="AG134" s="3"/>
-      <c r="AH134" s="3"/>
-      <c r="AI134" s="3"/>
-      <c r="AJ134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
@@ -6016,16 +4491,6 @@
       <c r="X135" s="3"/>
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
-      <c r="AA135" s="3"/>
-      <c r="AB135" s="3"/>
-      <c r="AC135" s="3"/>
-      <c r="AD135" s="3"/>
-      <c r="AE135" s="3"/>
-      <c r="AF135" s="3"/>
-      <c r="AG135" s="3"/>
-      <c r="AH135" s="3"/>
-      <c r="AI135" s="3"/>
-      <c r="AJ135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
@@ -6054,16 +4519,6 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
-      <c r="AA136" s="3"/>
-      <c r="AB136" s="3"/>
-      <c r="AC136" s="3"/>
-      <c r="AD136" s="3"/>
-      <c r="AE136" s="3"/>
-      <c r="AF136" s="3"/>
-      <c r="AG136" s="3"/>
-      <c r="AH136" s="3"/>
-      <c r="AI136" s="3"/>
-      <c r="AJ136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
@@ -6092,16 +4547,6 @@
       <c r="X137" s="3"/>
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
-      <c r="AA137" s="3"/>
-      <c r="AB137" s="3"/>
-      <c r="AC137" s="3"/>
-      <c r="AD137" s="3"/>
-      <c r="AE137" s="3"/>
-      <c r="AF137" s="3"/>
-      <c r="AG137" s="3"/>
-      <c r="AH137" s="3"/>
-      <c r="AI137" s="3"/>
-      <c r="AJ137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
@@ -6130,16 +4575,6 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
-      <c r="AA138" s="3"/>
-      <c r="AB138" s="3"/>
-      <c r="AC138" s="3"/>
-      <c r="AD138" s="3"/>
-      <c r="AE138" s="3"/>
-      <c r="AF138" s="3"/>
-      <c r="AG138" s="3"/>
-      <c r="AH138" s="3"/>
-      <c r="AI138" s="3"/>
-      <c r="AJ138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
@@ -6168,16 +4603,6 @@
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
-      <c r="AA139" s="3"/>
-      <c r="AB139" s="3"/>
-      <c r="AC139" s="3"/>
-      <c r="AD139" s="3"/>
-      <c r="AE139" s="3"/>
-      <c r="AF139" s="3"/>
-      <c r="AG139" s="3"/>
-      <c r="AH139" s="3"/>
-      <c r="AI139" s="3"/>
-      <c r="AJ139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
@@ -6206,16 +4631,6 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
-      <c r="AA140" s="3"/>
-      <c r="AB140" s="3"/>
-      <c r="AC140" s="3"/>
-      <c r="AD140" s="3"/>
-      <c r="AE140" s="3"/>
-      <c r="AF140" s="3"/>
-      <c r="AG140" s="3"/>
-      <c r="AH140" s="3"/>
-      <c r="AI140" s="3"/>
-      <c r="AJ140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
@@ -6244,16 +4659,6 @@
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
-      <c r="AA141" s="3"/>
-      <c r="AB141" s="3"/>
-      <c r="AC141" s="3"/>
-      <c r="AD141" s="3"/>
-      <c r="AE141" s="3"/>
-      <c r="AF141" s="3"/>
-      <c r="AG141" s="3"/>
-      <c r="AH141" s="3"/>
-      <c r="AI141" s="3"/>
-      <c r="AJ141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
@@ -6282,16 +4687,6 @@
       <c r="X142" s="3"/>
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
-      <c r="AA142" s="3"/>
-      <c r="AB142" s="3"/>
-      <c r="AC142" s="3"/>
-      <c r="AD142" s="3"/>
-      <c r="AE142" s="3"/>
-      <c r="AF142" s="3"/>
-      <c r="AG142" s="3"/>
-      <c r="AH142" s="3"/>
-      <c r="AI142" s="3"/>
-      <c r="AJ142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
@@ -6320,16 +4715,6 @@
       <c r="X143" s="3"/>
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
-      <c r="AA143" s="3"/>
-      <c r="AB143" s="3"/>
-      <c r="AC143" s="3"/>
-      <c r="AD143" s="3"/>
-      <c r="AE143" s="3"/>
-      <c r="AF143" s="3"/>
-      <c r="AG143" s="3"/>
-      <c r="AH143" s="3"/>
-      <c r="AI143" s="3"/>
-      <c r="AJ143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
@@ -6358,16 +4743,6 @@
       <c r="X144" s="3"/>
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
-      <c r="AA144" s="3"/>
-      <c r="AB144" s="3"/>
-      <c r="AC144" s="3"/>
-      <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
-      <c r="AF144" s="3"/>
-      <c r="AG144" s="3"/>
-      <c r="AH144" s="3"/>
-      <c r="AI144" s="3"/>
-      <c r="AJ144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
@@ -6396,16 +4771,6 @@
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
-      <c r="AA145" s="3"/>
-      <c r="AB145" s="3"/>
-      <c r="AC145" s="3"/>
-      <c r="AD145" s="3"/>
-      <c r="AE145" s="3"/>
-      <c r="AF145" s="3"/>
-      <c r="AG145" s="3"/>
-      <c r="AH145" s="3"/>
-      <c r="AI145" s="3"/>
-      <c r="AJ145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
@@ -6434,16 +4799,6 @@
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
-      <c r="AA146" s="3"/>
-      <c r="AB146" s="3"/>
-      <c r="AC146" s="3"/>
-      <c r="AD146" s="3"/>
-      <c r="AE146" s="3"/>
-      <c r="AF146" s="3"/>
-      <c r="AG146" s="3"/>
-      <c r="AH146" s="3"/>
-      <c r="AI146" s="3"/>
-      <c r="AJ146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
@@ -6472,16 +4827,6 @@
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
-      <c r="AA147" s="3"/>
-      <c r="AB147" s="3"/>
-      <c r="AC147" s="3"/>
-      <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
-      <c r="AF147" s="3"/>
-      <c r="AG147" s="3"/>
-      <c r="AH147" s="3"/>
-      <c r="AI147" s="3"/>
-      <c r="AJ147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="3"/>
@@ -6510,16 +4855,6 @@
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
-      <c r="AA148" s="3"/>
-      <c r="AB148" s="3"/>
-      <c r="AC148" s="3"/>
-      <c r="AD148" s="3"/>
-      <c r="AE148" s="3"/>
-      <c r="AF148" s="3"/>
-      <c r="AG148" s="3"/>
-      <c r="AH148" s="3"/>
-      <c r="AI148" s="3"/>
-      <c r="AJ148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="3"/>
@@ -6548,16 +4883,6 @@
       <c r="X149" s="3"/>
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
-      <c r="AA149" s="3"/>
-      <c r="AB149" s="3"/>
-      <c r="AC149" s="3"/>
-      <c r="AD149" s="3"/>
-      <c r="AE149" s="3"/>
-      <c r="AF149" s="3"/>
-      <c r="AG149" s="3"/>
-      <c r="AH149" s="3"/>
-      <c r="AI149" s="3"/>
-      <c r="AJ149" s="3"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
@@ -6586,16 +4911,6 @@
       <c r="X150" s="3"/>
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
-      <c r="AA150" s="3"/>
-      <c r="AB150" s="3"/>
-      <c r="AC150" s="3"/>
-      <c r="AD150" s="3"/>
-      <c r="AE150" s="3"/>
-      <c r="AF150" s="3"/>
-      <c r="AG150" s="3"/>
-      <c r="AH150" s="3"/>
-      <c r="AI150" s="3"/>
-      <c r="AJ150" s="3"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="3"/>
@@ -6624,16 +4939,6 @@
       <c r="X151" s="3"/>
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
-      <c r="AA151" s="3"/>
-      <c r="AB151" s="3"/>
-      <c r="AC151" s="3"/>
-      <c r="AD151" s="3"/>
-      <c r="AE151" s="3"/>
-      <c r="AF151" s="3"/>
-      <c r="AG151" s="3"/>
-      <c r="AH151" s="3"/>
-      <c r="AI151" s="3"/>
-      <c r="AJ151" s="3"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="3"/>
@@ -6662,16 +4967,6 @@
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
-      <c r="AA152" s="3"/>
-      <c r="AB152" s="3"/>
-      <c r="AC152" s="3"/>
-      <c r="AD152" s="3"/>
-      <c r="AE152" s="3"/>
-      <c r="AF152" s="3"/>
-      <c r="AG152" s="3"/>
-      <c r="AH152" s="3"/>
-      <c r="AI152" s="3"/>
-      <c r="AJ152" s="3"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
@@ -6700,16 +4995,6 @@
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
-      <c r="AA153" s="3"/>
-      <c r="AB153" s="3"/>
-      <c r="AC153" s="3"/>
-      <c r="AD153" s="3"/>
-      <c r="AE153" s="3"/>
-      <c r="AF153" s="3"/>
-      <c r="AG153" s="3"/>
-      <c r="AH153" s="3"/>
-      <c r="AI153" s="3"/>
-      <c r="AJ153" s="3"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="3"/>
@@ -6738,16 +5023,6 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
-      <c r="AA154" s="3"/>
-      <c r="AB154" s="3"/>
-      <c r="AC154" s="3"/>
-      <c r="AD154" s="3"/>
-      <c r="AE154" s="3"/>
-      <c r="AF154" s="3"/>
-      <c r="AG154" s="3"/>
-      <c r="AH154" s="3"/>
-      <c r="AI154" s="3"/>
-      <c r="AJ154" s="3"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
@@ -6776,16 +5051,6 @@
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
-      <c r="AA155" s="3"/>
-      <c r="AB155" s="3"/>
-      <c r="AC155" s="3"/>
-      <c r="AD155" s="3"/>
-      <c r="AE155" s="3"/>
-      <c r="AF155" s="3"/>
-      <c r="AG155" s="3"/>
-      <c r="AH155" s="3"/>
-      <c r="AI155" s="3"/>
-      <c r="AJ155" s="3"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="3"/>
@@ -6814,16 +5079,6 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
-      <c r="AA156" s="3"/>
-      <c r="AB156" s="3"/>
-      <c r="AC156" s="3"/>
-      <c r="AD156" s="3"/>
-      <c r="AE156" s="3"/>
-      <c r="AF156" s="3"/>
-      <c r="AG156" s="3"/>
-      <c r="AH156" s="3"/>
-      <c r="AI156" s="3"/>
-      <c r="AJ156" s="3"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
@@ -6852,16 +5107,6 @@
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
-      <c r="AA157" s="3"/>
-      <c r="AB157" s="3"/>
-      <c r="AC157" s="3"/>
-      <c r="AD157" s="3"/>
-      <c r="AE157" s="3"/>
-      <c r="AF157" s="3"/>
-      <c r="AG157" s="3"/>
-      <c r="AH157" s="3"/>
-      <c r="AI157" s="3"/>
-      <c r="AJ157" s="3"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="3"/>
@@ -6890,16 +5135,6 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
-      <c r="AA158" s="3"/>
-      <c r="AB158" s="3"/>
-      <c r="AC158" s="3"/>
-      <c r="AD158" s="3"/>
-      <c r="AE158" s="3"/>
-      <c r="AF158" s="3"/>
-      <c r="AG158" s="3"/>
-      <c r="AH158" s="3"/>
-      <c r="AI158" s="3"/>
-      <c r="AJ158" s="3"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
@@ -6928,16 +5163,6 @@
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
-      <c r="AA159" s="3"/>
-      <c r="AB159" s="3"/>
-      <c r="AC159" s="3"/>
-      <c r="AD159" s="3"/>
-      <c r="AE159" s="3"/>
-      <c r="AF159" s="3"/>
-      <c r="AG159" s="3"/>
-      <c r="AH159" s="3"/>
-      <c r="AI159" s="3"/>
-      <c r="AJ159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="3"/>
@@ -6966,16 +5191,6 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
-      <c r="AA160" s="3"/>
-      <c r="AB160" s="3"/>
-      <c r="AC160" s="3"/>
-      <c r="AD160" s="3"/>
-      <c r="AE160" s="3"/>
-      <c r="AF160" s="3"/>
-      <c r="AG160" s="3"/>
-      <c r="AH160" s="3"/>
-      <c r="AI160" s="3"/>
-      <c r="AJ160" s="3"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="3"/>
@@ -7004,16 +5219,6 @@
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
-      <c r="AA161" s="3"/>
-      <c r="AB161" s="3"/>
-      <c r="AC161" s="3"/>
-      <c r="AD161" s="3"/>
-      <c r="AE161" s="3"/>
-      <c r="AF161" s="3"/>
-      <c r="AG161" s="3"/>
-      <c r="AH161" s="3"/>
-      <c r="AI161" s="3"/>
-      <c r="AJ161" s="3"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
@@ -7042,16 +5247,6 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
-      <c r="AA162" s="3"/>
-      <c r="AB162" s="3"/>
-      <c r="AC162" s="3"/>
-      <c r="AD162" s="3"/>
-      <c r="AE162" s="3"/>
-      <c r="AF162" s="3"/>
-      <c r="AG162" s="3"/>
-      <c r="AH162" s="3"/>
-      <c r="AI162" s="3"/>
-      <c r="AJ162" s="3"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
@@ -7080,16 +5275,6 @@
       <c r="X163" s="3"/>
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
-      <c r="AA163" s="3"/>
-      <c r="AB163" s="3"/>
-      <c r="AC163" s="3"/>
-      <c r="AD163" s="3"/>
-      <c r="AE163" s="3"/>
-      <c r="AF163" s="3"/>
-      <c r="AG163" s="3"/>
-      <c r="AH163" s="3"/>
-      <c r="AI163" s="3"/>
-      <c r="AJ163" s="3"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="3"/>
@@ -7118,16 +5303,6 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
-      <c r="AF164" s="3"/>
-      <c r="AG164" s="3"/>
-      <c r="AH164" s="3"/>
-      <c r="AI164" s="3"/>
-      <c r="AJ164" s="3"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
@@ -7156,16 +5331,6 @@
       <c r="X165" s="3"/>
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
-      <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-      <c r="AC165" s="3"/>
-      <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-      <c r="AF165" s="3"/>
-      <c r="AG165" s="3"/>
-      <c r="AH165" s="3"/>
-      <c r="AI165" s="3"/>
-      <c r="AJ165" s="3"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
@@ -7194,16 +5359,6 @@
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
-      <c r="AA166" s="3"/>
-      <c r="AB166" s="3"/>
-      <c r="AC166" s="3"/>
-      <c r="AD166" s="3"/>
-      <c r="AE166" s="3"/>
-      <c r="AF166" s="3"/>
-      <c r="AG166" s="3"/>
-      <c r="AH166" s="3"/>
-      <c r="AI166" s="3"/>
-      <c r="AJ166" s="3"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
@@ -7232,16 +5387,6 @@
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
-      <c r="AA167" s="3"/>
-      <c r="AB167" s="3"/>
-      <c r="AC167" s="3"/>
-      <c r="AD167" s="3"/>
-      <c r="AE167" s="3"/>
-      <c r="AF167" s="3"/>
-      <c r="AG167" s="3"/>
-      <c r="AH167" s="3"/>
-      <c r="AI167" s="3"/>
-      <c r="AJ167" s="3"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
@@ -7270,16 +5415,6 @@
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
-      <c r="AA168" s="3"/>
-      <c r="AB168" s="3"/>
-      <c r="AC168" s="3"/>
-      <c r="AD168" s="3"/>
-      <c r="AE168" s="3"/>
-      <c r="AF168" s="3"/>
-      <c r="AG168" s="3"/>
-      <c r="AH168" s="3"/>
-      <c r="AI168" s="3"/>
-      <c r="AJ168" s="3"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
@@ -7308,16 +5443,6 @@
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
-      <c r="AA169" s="3"/>
-      <c r="AB169" s="3"/>
-      <c r="AC169" s="3"/>
-      <c r="AD169" s="3"/>
-      <c r="AE169" s="3"/>
-      <c r="AF169" s="3"/>
-      <c r="AG169" s="3"/>
-      <c r="AH169" s="3"/>
-      <c r="AI169" s="3"/>
-      <c r="AJ169" s="3"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="3"/>
@@ -7346,16 +5471,6 @@
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
-      <c r="AA170" s="3"/>
-      <c r="AB170" s="3"/>
-      <c r="AC170" s="3"/>
-      <c r="AD170" s="3"/>
-      <c r="AE170" s="3"/>
-      <c r="AF170" s="3"/>
-      <c r="AG170" s="3"/>
-      <c r="AH170" s="3"/>
-      <c r="AI170" s="3"/>
-      <c r="AJ170" s="3"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
@@ -7384,16 +5499,6 @@
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
-      <c r="AA171" s="3"/>
-      <c r="AB171" s="3"/>
-      <c r="AC171" s="3"/>
-      <c r="AD171" s="3"/>
-      <c r="AE171" s="3"/>
-      <c r="AF171" s="3"/>
-      <c r="AG171" s="3"/>
-      <c r="AH171" s="3"/>
-      <c r="AI171" s="3"/>
-      <c r="AJ171" s="3"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="3"/>
@@ -7422,16 +5527,6 @@
       <c r="X172" s="3"/>
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
-      <c r="AA172" s="3"/>
-      <c r="AB172" s="3"/>
-      <c r="AC172" s="3"/>
-      <c r="AD172" s="3"/>
-      <c r="AE172" s="3"/>
-      <c r="AF172" s="3"/>
-      <c r="AG172" s="3"/>
-      <c r="AH172" s="3"/>
-      <c r="AI172" s="3"/>
-      <c r="AJ172" s="3"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
@@ -7460,16 +5555,6 @@
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
-      <c r="AA173" s="3"/>
-      <c r="AB173" s="3"/>
-      <c r="AC173" s="3"/>
-      <c r="AD173" s="3"/>
-      <c r="AE173" s="3"/>
-      <c r="AF173" s="3"/>
-      <c r="AG173" s="3"/>
-      <c r="AH173" s="3"/>
-      <c r="AI173" s="3"/>
-      <c r="AJ173" s="3"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="3"/>
@@ -7498,16 +5583,6 @@
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
-      <c r="AA174" s="3"/>
-      <c r="AB174" s="3"/>
-      <c r="AC174" s="3"/>
-      <c r="AD174" s="3"/>
-      <c r="AE174" s="3"/>
-      <c r="AF174" s="3"/>
-      <c r="AG174" s="3"/>
-      <c r="AH174" s="3"/>
-      <c r="AI174" s="3"/>
-      <c r="AJ174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
@@ -7536,16 +5611,6 @@
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
-      <c r="AA175" s="3"/>
-      <c r="AB175" s="3"/>
-      <c r="AC175" s="3"/>
-      <c r="AD175" s="3"/>
-      <c r="AE175" s="3"/>
-      <c r="AF175" s="3"/>
-      <c r="AG175" s="3"/>
-      <c r="AH175" s="3"/>
-      <c r="AI175" s="3"/>
-      <c r="AJ175" s="3"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="3"/>
@@ -7574,16 +5639,6 @@
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
-      <c r="AA176" s="3"/>
-      <c r="AB176" s="3"/>
-      <c r="AC176" s="3"/>
-      <c r="AD176" s="3"/>
-      <c r="AE176" s="3"/>
-      <c r="AF176" s="3"/>
-      <c r="AG176" s="3"/>
-      <c r="AH176" s="3"/>
-      <c r="AI176" s="3"/>
-      <c r="AJ176" s="3"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
@@ -7612,16 +5667,6 @@
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
-      <c r="AA177" s="3"/>
-      <c r="AB177" s="3"/>
-      <c r="AC177" s="3"/>
-      <c r="AD177" s="3"/>
-      <c r="AE177" s="3"/>
-      <c r="AF177" s="3"/>
-      <c r="AG177" s="3"/>
-      <c r="AH177" s="3"/>
-      <c r="AI177" s="3"/>
-      <c r="AJ177" s="3"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="3"/>
@@ -7650,16 +5695,6 @@
       <c r="X178" s="3"/>
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
-      <c r="AA178" s="3"/>
-      <c r="AB178" s="3"/>
-      <c r="AC178" s="3"/>
-      <c r="AD178" s="3"/>
-      <c r="AE178" s="3"/>
-      <c r="AF178" s="3"/>
-      <c r="AG178" s="3"/>
-      <c r="AH178" s="3"/>
-      <c r="AI178" s="3"/>
-      <c r="AJ178" s="3"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="3"/>
@@ -7688,16 +5723,6 @@
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
-      <c r="AA179" s="3"/>
-      <c r="AB179" s="3"/>
-      <c r="AC179" s="3"/>
-      <c r="AD179" s="3"/>
-      <c r="AE179" s="3"/>
-      <c r="AF179" s="3"/>
-      <c r="AG179" s="3"/>
-      <c r="AH179" s="3"/>
-      <c r="AI179" s="3"/>
-      <c r="AJ179" s="3"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
@@ -7726,16 +5751,6 @@
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
-      <c r="AA180" s="3"/>
-      <c r="AB180" s="3"/>
-      <c r="AC180" s="3"/>
-      <c r="AD180" s="3"/>
-      <c r="AE180" s="3"/>
-      <c r="AF180" s="3"/>
-      <c r="AG180" s="3"/>
-      <c r="AH180" s="3"/>
-      <c r="AI180" s="3"/>
-      <c r="AJ180" s="3"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="3"/>
@@ -7764,16 +5779,6 @@
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
-      <c r="AA181" s="3"/>
-      <c r="AB181" s="3"/>
-      <c r="AC181" s="3"/>
-      <c r="AD181" s="3"/>
-      <c r="AE181" s="3"/>
-      <c r="AF181" s="3"/>
-      <c r="AG181" s="3"/>
-      <c r="AH181" s="3"/>
-      <c r="AI181" s="3"/>
-      <c r="AJ181" s="3"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="3"/>
@@ -7802,24 +5807,14 @@
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
-      <c r="AA182" s="3"/>
-      <c r="AB182" s="3"/>
-      <c r="AC182" s="3"/>
-      <c r="AD182" s="3"/>
-      <c r="AE182" s="3"/>
-      <c r="AF182" s="3"/>
-      <c r="AG182" s="3"/>
-      <c r="AH182" s="3"/>
-      <c r="AI182" s="3"/>
-      <c r="AJ182" s="3"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -7840,24 +5835,14 @@
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
-      <c r="AA183" s="3"/>
-      <c r="AB183" s="3"/>
-      <c r="AC183" s="3"/>
-      <c r="AD183" s="3"/>
-      <c r="AE183" s="3"/>
-      <c r="AF183" s="3"/>
-      <c r="AG183" s="3"/>
-      <c r="AH183" s="3"/>
-      <c r="AI183" s="3"/>
-      <c r="AJ183" s="3"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
@@ -7878,24 +5863,14 @@
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
-      <c r="AA184" s="3"/>
-      <c r="AB184" s="3"/>
-      <c r="AC184" s="3"/>
-      <c r="AD184" s="3"/>
-      <c r="AE184" s="3"/>
-      <c r="AF184" s="3"/>
-      <c r="AG184" s="3"/>
-      <c r="AH184" s="3"/>
-      <c r="AI184" s="3"/>
-      <c r="AJ184" s="3"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -7916,29 +5891,19 @@
       <c r="X185" s="3"/>
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
-      <c r="AA185" s="3"/>
-      <c r="AB185" s="3"/>
-      <c r="AC185" s="3"/>
-      <c r="AD185" s="3"/>
-      <c r="AE185" s="3"/>
-      <c r="AF185" s="3"/>
-      <c r="AG185" s="3"/>
-      <c r="AH185" s="3"/>
-      <c r="AI185" s="3"/>
-      <c r="AJ185" s="3"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
       <c r="N186" s="3"/>
@@ -7954,29 +5919,19 @@
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
-      <c r="AA186" s="3"/>
-      <c r="AB186" s="3"/>
-      <c r="AC186" s="3"/>
-      <c r="AD186" s="3"/>
-      <c r="AE186" s="3"/>
-      <c r="AF186" s="3"/>
-      <c r="AG186" s="3"/>
-      <c r="AH186" s="3"/>
-      <c r="AI186" s="3"/>
-      <c r="AJ186" s="3"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
@@ -7992,1955 +5947,58 @@
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
-      <c r="AA187" s="3"/>
-      <c r="AB187" s="3"/>
-      <c r="AC187" s="3"/>
-      <c r="AD187" s="3"/>
-      <c r="AE187" s="3"/>
-      <c r="AF187" s="3"/>
-      <c r="AG187" s="3"/>
-      <c r="AH187" s="3"/>
-      <c r="AI187" s="3"/>
-      <c r="AJ187" s="3"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
-      <c r="P188" s="3"/>
-      <c r="Q188" s="3"/>
-      <c r="R188" s="3"/>
-      <c r="S188" s="3"/>
-      <c r="T188" s="3"/>
-      <c r="U188" s="3"/>
-      <c r="V188" s="3"/>
-      <c r="W188" s="3"/>
-      <c r="X188" s="3"/>
-      <c r="Y188" s="3"/>
-      <c r="Z188" s="3"/>
-      <c r="AA188" s="3"/>
-      <c r="AB188" s="3"/>
-      <c r="AC188" s="3"/>
-      <c r="AD188" s="3"/>
-      <c r="AE188" s="3"/>
-      <c r="AF188" s="3"/>
-      <c r="AG188" s="3"/>
-      <c r="AH188" s="3"/>
-      <c r="AI188" s="3"/>
-      <c r="AJ188" s="3"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3"/>
-      <c r="N189" s="3"/>
-      <c r="O189" s="3"/>
-      <c r="P189" s="3"/>
-      <c r="Q189" s="3"/>
-      <c r="R189" s="3"/>
-      <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
-      <c r="U189" s="3"/>
-      <c r="V189" s="3"/>
-      <c r="W189" s="3"/>
-      <c r="X189" s="3"/>
-      <c r="Y189" s="3"/>
-      <c r="Z189" s="3"/>
-      <c r="AA189" s="3"/>
-      <c r="AB189" s="3"/>
-      <c r="AC189" s="3"/>
-      <c r="AD189" s="3"/>
-      <c r="AE189" s="3"/>
-      <c r="AF189" s="3"/>
-      <c r="AG189" s="3"/>
-      <c r="AH189" s="3"/>
-      <c r="AI189" s="3"/>
-      <c r="AJ189" s="3"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3"/>
-      <c r="N190" s="3"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3"/>
-      <c r="Q190" s="3"/>
-      <c r="R190" s="3"/>
-      <c r="S190" s="3"/>
-      <c r="T190" s="3"/>
-      <c r="U190" s="3"/>
-      <c r="V190" s="3"/>
-      <c r="W190" s="3"/>
-      <c r="X190" s="3"/>
-      <c r="Y190" s="3"/>
-      <c r="Z190" s="3"/>
-      <c r="AA190" s="3"/>
-      <c r="AB190" s="3"/>
-      <c r="AC190" s="3"/>
-      <c r="AD190" s="3"/>
-      <c r="AE190" s="3"/>
-      <c r="AF190" s="3"/>
-      <c r="AG190" s="3"/>
-      <c r="AH190" s="3"/>
-      <c r="AI190" s="3"/>
-      <c r="AJ190" s="3"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
-      <c r="Q191" s="3"/>
-      <c r="R191" s="3"/>
-      <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
-      <c r="U191" s="3"/>
-      <c r="V191" s="3"/>
-      <c r="W191" s="3"/>
-      <c r="X191" s="3"/>
-      <c r="Y191" s="3"/>
-      <c r="Z191" s="3"/>
-      <c r="AA191" s="3"/>
-      <c r="AB191" s="3"/>
-      <c r="AC191" s="3"/>
-      <c r="AD191" s="3"/>
-      <c r="AE191" s="3"/>
-      <c r="AF191" s="3"/>
-      <c r="AG191" s="3"/>
-      <c r="AH191" s="3"/>
-      <c r="AI191" s="3"/>
-      <c r="AJ191" s="3"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3"/>
-      <c r="Q192" s="3"/>
-      <c r="R192" s="3"/>
-      <c r="S192" s="3"/>
-      <c r="T192" s="3"/>
-      <c r="U192" s="3"/>
-      <c r="V192" s="3"/>
-      <c r="W192" s="3"/>
-      <c r="X192" s="3"/>
-      <c r="Y192" s="3"/>
-      <c r="Z192" s="3"/>
-      <c r="AA192" s="3"/>
-      <c r="AB192" s="3"/>
-      <c r="AC192" s="3"/>
-      <c r="AD192" s="3"/>
-      <c r="AE192" s="3"/>
-      <c r="AF192" s="3"/>
-      <c r="AG192" s="3"/>
-      <c r="AH192" s="3"/>
-      <c r="AI192" s="3"/>
-      <c r="AJ192" s="3"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
-      <c r="Q193" s="3"/>
-      <c r="R193" s="3"/>
-      <c r="S193" s="3"/>
-      <c r="T193" s="3"/>
-      <c r="U193" s="3"/>
-      <c r="V193" s="3"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-      <c r="AA193" s="3"/>
-      <c r="AB193" s="3"/>
-      <c r="AC193" s="3"/>
-      <c r="AD193" s="3"/>
-      <c r="AE193" s="3"/>
-      <c r="AF193" s="3"/>
-      <c r="AG193" s="3"/>
-      <c r="AH193" s="3"/>
-      <c r="AI193" s="3"/>
-      <c r="AJ193" s="3"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
-      <c r="O194" s="3"/>
-      <c r="P194" s="3"/>
-      <c r="Q194" s="3"/>
-      <c r="R194" s="3"/>
-      <c r="S194" s="3"/>
-      <c r="T194" s="3"/>
-      <c r="U194" s="3"/>
-      <c r="V194" s="3"/>
-      <c r="W194" s="3"/>
-      <c r="X194" s="3"/>
-      <c r="Y194" s="3"/>
-      <c r="Z194" s="3"/>
-      <c r="AA194" s="3"/>
-      <c r="AB194" s="3"/>
-      <c r="AC194" s="3"/>
-      <c r="AD194" s="3"/>
-      <c r="AE194" s="3"/>
-      <c r="AF194" s="3"/>
-      <c r="AG194" s="3"/>
-      <c r="AH194" s="3"/>
-      <c r="AI194" s="3"/>
-      <c r="AJ194" s="3"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
-      <c r="O195" s="3"/>
-      <c r="P195" s="3"/>
-      <c r="Q195" s="3"/>
-      <c r="R195" s="3"/>
-      <c r="S195" s="3"/>
-      <c r="T195" s="3"/>
-      <c r="U195" s="3"/>
-      <c r="V195" s="3"/>
-      <c r="W195" s="3"/>
-      <c r="X195" s="3"/>
-      <c r="Y195" s="3"/>
-      <c r="Z195" s="3"/>
-      <c r="AA195" s="3"/>
-      <c r="AB195" s="3"/>
-      <c r="AC195" s="3"/>
-      <c r="AD195" s="3"/>
-      <c r="AE195" s="3"/>
-      <c r="AF195" s="3"/>
-      <c r="AG195" s="3"/>
-      <c r="AH195" s="3"/>
-      <c r="AI195" s="3"/>
-      <c r="AJ195" s="3"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
-      <c r="O196" s="3"/>
-      <c r="P196" s="3"/>
-      <c r="Q196" s="3"/>
-      <c r="R196" s="3"/>
-      <c r="S196" s="3"/>
-      <c r="T196" s="3"/>
-      <c r="U196" s="3"/>
-      <c r="V196" s="3"/>
-      <c r="W196" s="3"/>
-      <c r="X196" s="3"/>
-      <c r="Y196" s="3"/>
-      <c r="Z196" s="3"/>
-      <c r="AA196" s="3"/>
-      <c r="AB196" s="3"/>
-      <c r="AC196" s="3"/>
-      <c r="AD196" s="3"/>
-      <c r="AE196" s="3"/>
-      <c r="AF196" s="3"/>
-      <c r="AG196" s="3"/>
-      <c r="AH196" s="3"/>
-      <c r="AI196" s="3"/>
-      <c r="AJ196" s="3"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="3"/>
-      <c r="Q197" s="3"/>
-      <c r="R197" s="3"/>
-      <c r="S197" s="3"/>
-      <c r="T197" s="3"/>
-      <c r="U197" s="3"/>
-      <c r="V197" s="3"/>
-      <c r="W197" s="3"/>
-      <c r="X197" s="3"/>
-      <c r="Y197" s="3"/>
-      <c r="Z197" s="3"/>
-      <c r="AA197" s="3"/>
-      <c r="AB197" s="3"/>
-      <c r="AC197" s="3"/>
-      <c r="AD197" s="3"/>
-      <c r="AE197" s="3"/>
-      <c r="AF197" s="3"/>
-      <c r="AG197" s="3"/>
-      <c r="AH197" s="3"/>
-      <c r="AI197" s="3"/>
-      <c r="AJ197" s="3"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
-      <c r="P198" s="3"/>
-      <c r="Q198" s="3"/>
-      <c r="R198" s="3"/>
-      <c r="S198" s="3"/>
-      <c r="T198" s="3"/>
-      <c r="U198" s="3"/>
-      <c r="V198" s="3"/>
-      <c r="W198" s="3"/>
-      <c r="X198" s="3"/>
-      <c r="Y198" s="3"/>
-      <c r="Z198" s="3"/>
-      <c r="AA198" s="3"/>
-      <c r="AB198" s="3"/>
-      <c r="AC198" s="3"/>
-      <c r="AD198" s="3"/>
-      <c r="AE198" s="3"/>
-      <c r="AF198" s="3"/>
-      <c r="AG198" s="3"/>
-      <c r="AH198" s="3"/>
-      <c r="AI198" s="3"/>
-      <c r="AJ198" s="3"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3"/>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
-      <c r="P199" s="3"/>
-      <c r="Q199" s="3"/>
-      <c r="R199" s="3"/>
-      <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
-      <c r="U199" s="3"/>
-      <c r="V199" s="3"/>
-      <c r="W199" s="3"/>
-      <c r="X199" s="3"/>
-      <c r="Y199" s="3"/>
-      <c r="Z199" s="3"/>
-      <c r="AA199" s="3"/>
-      <c r="AB199" s="3"/>
-      <c r="AC199" s="3"/>
-      <c r="AD199" s="3"/>
-      <c r="AE199" s="3"/>
-      <c r="AF199" s="3"/>
-      <c r="AG199" s="3"/>
-      <c r="AH199" s="3"/>
-      <c r="AI199" s="3"/>
-      <c r="AJ199" s="3"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
-      <c r="N200" s="3"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
-      <c r="U200" s="3"/>
-      <c r="V200" s="3"/>
-      <c r="W200" s="3"/>
-      <c r="X200" s="3"/>
-      <c r="Y200" s="3"/>
-      <c r="Z200" s="3"/>
-      <c r="AA200" s="3"/>
-      <c r="AB200" s="3"/>
-      <c r="AC200" s="3"/>
-      <c r="AD200" s="3"/>
-      <c r="AE200" s="3"/>
-      <c r="AF200" s="3"/>
-      <c r="AG200" s="3"/>
-      <c r="AH200" s="3"/>
-      <c r="AI200" s="3"/>
-      <c r="AJ200" s="3"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
-      <c r="N201" s="3"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
-      <c r="Q201" s="3"/>
-      <c r="R201" s="3"/>
-      <c r="S201" s="3"/>
-      <c r="T201" s="3"/>
-      <c r="U201" s="3"/>
-      <c r="V201" s="3"/>
-      <c r="W201" s="3"/>
-      <c r="X201" s="3"/>
-      <c r="Y201" s="3"/>
-      <c r="Z201" s="3"/>
-      <c r="AA201" s="3"/>
-      <c r="AB201" s="3"/>
-      <c r="AC201" s="3"/>
-      <c r="AD201" s="3"/>
-      <c r="AE201" s="3"/>
-      <c r="AF201" s="3"/>
-      <c r="AG201" s="3"/>
-      <c r="AH201" s="3"/>
-      <c r="AI201" s="3"/>
-      <c r="AJ201" s="3"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
-      <c r="O202" s="3"/>
-      <c r="P202" s="3"/>
-      <c r="Q202" s="3"/>
-      <c r="R202" s="3"/>
-      <c r="S202" s="3"/>
-      <c r="T202" s="3"/>
-      <c r="U202" s="3"/>
-      <c r="V202" s="3"/>
-      <c r="W202" s="3"/>
-      <c r="X202" s="3"/>
-      <c r="Y202" s="3"/>
-      <c r="Z202" s="3"/>
-      <c r="AA202" s="3"/>
-      <c r="AB202" s="3"/>
-      <c r="AC202" s="3"/>
-      <c r="AD202" s="3"/>
-      <c r="AE202" s="3"/>
-      <c r="AF202" s="3"/>
-      <c r="AG202" s="3"/>
-      <c r="AH202" s="3"/>
-      <c r="AI202" s="3"/>
-      <c r="AJ202" s="3"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
-      <c r="N203" s="3"/>
-      <c r="O203" s="3"/>
-      <c r="P203" s="3"/>
-      <c r="Q203" s="3"/>
-      <c r="R203" s="3"/>
-      <c r="S203" s="3"/>
-      <c r="T203" s="3"/>
-      <c r="U203" s="3"/>
-      <c r="V203" s="3"/>
-      <c r="W203" s="3"/>
-      <c r="X203" s="3"/>
-      <c r="Y203" s="3"/>
-      <c r="Z203" s="3"/>
-      <c r="AA203" s="3"/>
-      <c r="AB203" s="3"/>
-      <c r="AC203" s="3"/>
-      <c r="AD203" s="3"/>
-      <c r="AE203" s="3"/>
-      <c r="AF203" s="3"/>
-      <c r="AG203" s="3"/>
-      <c r="AH203" s="3"/>
-      <c r="AI203" s="3"/>
-      <c r="AJ203" s="3"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
-      <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
-      <c r="N204" s="3"/>
-      <c r="O204" s="3"/>
-      <c r="P204" s="3"/>
-      <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="3"/>
-      <c r="T204" s="3"/>
-      <c r="U204" s="3"/>
-      <c r="V204" s="3"/>
-      <c r="W204" s="3"/>
-      <c r="X204" s="3"/>
-      <c r="Y204" s="3"/>
-      <c r="Z204" s="3"/>
-      <c r="AA204" s="3"/>
-      <c r="AB204" s="3"/>
-      <c r="AC204" s="3"/>
-      <c r="AD204" s="3"/>
-      <c r="AE204" s="3"/>
-      <c r="AF204" s="3"/>
-      <c r="AG204" s="3"/>
-      <c r="AH204" s="3"/>
-      <c r="AI204" s="3"/>
-      <c r="AJ204" s="3"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
-      <c r="O205" s="3"/>
-      <c r="P205" s="3"/>
-      <c r="Q205" s="3"/>
-      <c r="R205" s="3"/>
-      <c r="S205" s="3"/>
-      <c r="T205" s="3"/>
-      <c r="U205" s="3"/>
-      <c r="V205" s="3"/>
-      <c r="W205" s="3"/>
-      <c r="X205" s="3"/>
-      <c r="Y205" s="3"/>
-      <c r="Z205" s="3"/>
-      <c r="AA205" s="3"/>
-      <c r="AB205" s="3"/>
-      <c r="AC205" s="3"/>
-      <c r="AD205" s="3"/>
-      <c r="AE205" s="3"/>
-      <c r="AF205" s="3"/>
-      <c r="AG205" s="3"/>
-      <c r="AH205" s="3"/>
-      <c r="AI205" s="3"/>
-      <c r="AJ205" s="3"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="M206" s="3"/>
-      <c r="N206" s="3"/>
-      <c r="O206" s="3"/>
-      <c r="P206" s="3"/>
-      <c r="Q206" s="3"/>
-      <c r="R206" s="3"/>
-      <c r="S206" s="3"/>
-      <c r="T206" s="3"/>
-      <c r="U206" s="3"/>
-      <c r="V206" s="3"/>
-      <c r="W206" s="3"/>
-      <c r="X206" s="3"/>
-      <c r="Y206" s="3"/>
-      <c r="Z206" s="3"/>
-      <c r="AA206" s="3"/>
-      <c r="AB206" s="3"/>
-      <c r="AC206" s="3"/>
-      <c r="AD206" s="3"/>
-      <c r="AE206" s="3"/>
-      <c r="AF206" s="3"/>
-      <c r="AG206" s="3"/>
-      <c r="AH206" s="3"/>
-      <c r="AI206" s="3"/>
-      <c r="AJ206" s="3"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3"/>
-      <c r="P207" s="3"/>
-      <c r="Q207" s="3"/>
-      <c r="R207" s="3"/>
-      <c r="S207" s="3"/>
-      <c r="T207" s="3"/>
-      <c r="U207" s="3"/>
-      <c r="V207" s="3"/>
-      <c r="W207" s="3"/>
-      <c r="X207" s="3"/>
-      <c r="Y207" s="3"/>
-      <c r="Z207" s="3"/>
-      <c r="AA207" s="3"/>
-      <c r="AB207" s="3"/>
-      <c r="AC207" s="3"/>
-      <c r="AD207" s="3"/>
-      <c r="AE207" s="3"/>
-      <c r="AF207" s="3"/>
-      <c r="AG207" s="3"/>
-      <c r="AH207" s="3"/>
-      <c r="AI207" s="3"/>
-      <c r="AJ207" s="3"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
-      <c r="O208" s="3"/>
-      <c r="P208" s="3"/>
-      <c r="Q208" s="3"/>
-      <c r="R208" s="3"/>
-      <c r="S208" s="3"/>
-      <c r="T208" s="3"/>
-      <c r="U208" s="3"/>
-      <c r="V208" s="3"/>
-      <c r="W208" s="3"/>
-      <c r="X208" s="3"/>
-      <c r="Y208" s="3"/>
-      <c r="Z208" s="3"/>
-      <c r="AA208" s="3"/>
-      <c r="AB208" s="3"/>
-      <c r="AC208" s="3"/>
-      <c r="AD208" s="3"/>
-      <c r="AE208" s="3"/>
-      <c r="AF208" s="3"/>
-      <c r="AG208" s="3"/>
-      <c r="AH208" s="3"/>
-      <c r="AI208" s="3"/>
-      <c r="AJ208" s="3"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
-      <c r="P209" s="3"/>
-      <c r="Q209" s="3"/>
-      <c r="R209" s="3"/>
-      <c r="S209" s="3"/>
-      <c r="T209" s="3"/>
-      <c r="U209" s="3"/>
-      <c r="V209" s="3"/>
-      <c r="W209" s="3"/>
-      <c r="X209" s="3"/>
-      <c r="Y209" s="3"/>
-      <c r="Z209" s="3"/>
-      <c r="AA209" s="3"/>
-      <c r="AB209" s="3"/>
-      <c r="AC209" s="3"/>
-      <c r="AD209" s="3"/>
-      <c r="AE209" s="3"/>
-      <c r="AF209" s="3"/>
-      <c r="AG209" s="3"/>
-      <c r="AH209" s="3"/>
-      <c r="AI209" s="3"/>
-      <c r="AJ209" s="3"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
-      <c r="P210" s="3"/>
-      <c r="Q210" s="3"/>
-      <c r="R210" s="3"/>
-      <c r="S210" s="3"/>
-      <c r="T210" s="3"/>
-      <c r="U210" s="3"/>
-      <c r="V210" s="3"/>
-      <c r="W210" s="3"/>
-      <c r="X210" s="3"/>
-      <c r="Y210" s="3"/>
-      <c r="Z210" s="3"/>
-      <c r="AA210" s="3"/>
-      <c r="AB210" s="3"/>
-      <c r="AC210" s="3"/>
-      <c r="AD210" s="3"/>
-      <c r="AE210" s="3"/>
-      <c r="AF210" s="3"/>
-      <c r="AG210" s="3"/>
-      <c r="AH210" s="3"/>
-      <c r="AI210" s="3"/>
-      <c r="AJ210" s="3"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3"/>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
-      <c r="Q211" s="3"/>
-      <c r="R211" s="3"/>
-      <c r="S211" s="3"/>
-      <c r="T211" s="3"/>
-      <c r="U211" s="3"/>
-      <c r="V211" s="3"/>
-      <c r="W211" s="3"/>
-      <c r="X211" s="3"/>
-      <c r="Y211" s="3"/>
-      <c r="Z211" s="3"/>
-      <c r="AA211" s="3"/>
-      <c r="AB211" s="3"/>
-      <c r="AC211" s="3"/>
-      <c r="AD211" s="3"/>
-      <c r="AE211" s="3"/>
-      <c r="AF211" s="3"/>
-      <c r="AG211" s="3"/>
-      <c r="AH211" s="3"/>
-      <c r="AI211" s="3"/>
-      <c r="AJ211" s="3"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-      <c r="P212" s="3"/>
-      <c r="Q212" s="3"/>
-      <c r="R212" s="3"/>
-      <c r="S212" s="3"/>
-      <c r="T212" s="3"/>
-      <c r="U212" s="3"/>
-      <c r="V212" s="3"/>
-      <c r="W212" s="3"/>
-      <c r="X212" s="3"/>
-      <c r="Y212" s="3"/>
-      <c r="Z212" s="3"/>
-      <c r="AA212" s="3"/>
-      <c r="AB212" s="3"/>
-      <c r="AC212" s="3"/>
-      <c r="AD212" s="3"/>
-      <c r="AE212" s="3"/>
-      <c r="AF212" s="3"/>
-      <c r="AG212" s="3"/>
-      <c r="AH212" s="3"/>
-      <c r="AI212" s="3"/>
-      <c r="AJ212" s="3"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
-      <c r="R213" s="3"/>
-      <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
-      <c r="U213" s="3"/>
-      <c r="V213" s="3"/>
-      <c r="W213" s="3"/>
-      <c r="X213" s="3"/>
-      <c r="Y213" s="3"/>
-      <c r="Z213" s="3"/>
-      <c r="AA213" s="3"/>
-      <c r="AB213" s="3"/>
-      <c r="AC213" s="3"/>
-      <c r="AD213" s="3"/>
-      <c r="AE213" s="3"/>
-      <c r="AF213" s="3"/>
-      <c r="AG213" s="3"/>
-      <c r="AH213" s="3"/>
-      <c r="AI213" s="3"/>
-      <c r="AJ213" s="3"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
-      <c r="R214" s="3"/>
-      <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
-      <c r="U214" s="3"/>
-      <c r="V214" s="3"/>
-      <c r="W214" s="3"/>
-      <c r="X214" s="3"/>
-      <c r="Y214" s="3"/>
-      <c r="Z214" s="3"/>
-      <c r="AA214" s="3"/>
-      <c r="AB214" s="3"/>
-      <c r="AC214" s="3"/>
-      <c r="AD214" s="3"/>
-      <c r="AE214" s="3"/>
-      <c r="AF214" s="3"/>
-      <c r="AG214" s="3"/>
-      <c r="AH214" s="3"/>
-      <c r="AI214" s="3"/>
-      <c r="AJ214" s="3"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-      <c r="P215" s="3"/>
-      <c r="Q215" s="3"/>
-      <c r="R215" s="3"/>
-      <c r="S215" s="3"/>
-      <c r="T215" s="3"/>
-      <c r="U215" s="3"/>
-      <c r="V215" s="3"/>
-      <c r="W215" s="3"/>
-      <c r="X215" s="3"/>
-      <c r="Y215" s="3"/>
-      <c r="Z215" s="3"/>
-      <c r="AA215" s="3"/>
-      <c r="AB215" s="3"/>
-      <c r="AC215" s="3"/>
-      <c r="AD215" s="3"/>
-      <c r="AE215" s="3"/>
-      <c r="AF215" s="3"/>
-      <c r="AG215" s="3"/>
-      <c r="AH215" s="3"/>
-      <c r="AI215" s="3"/>
-      <c r="AJ215" s="3"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
-      <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
-      <c r="R216" s="3"/>
-      <c r="S216" s="3"/>
-      <c r="T216" s="3"/>
-      <c r="U216" s="3"/>
-      <c r="V216" s="3"/>
-      <c r="W216" s="3"/>
-      <c r="X216" s="3"/>
-      <c r="Y216" s="3"/>
-      <c r="Z216" s="3"/>
-      <c r="AA216" s="3"/>
-      <c r="AB216" s="3"/>
-      <c r="AC216" s="3"/>
-      <c r="AD216" s="3"/>
-      <c r="AE216" s="3"/>
-      <c r="AF216" s="3"/>
-      <c r="AG216" s="3"/>
-      <c r="AH216" s="3"/>
-      <c r="AI216" s="3"/>
-      <c r="AJ216" s="3"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
-      <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
-      <c r="R217" s="3"/>
-      <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
-      <c r="U217" s="3"/>
-      <c r="V217" s="3"/>
-      <c r="W217" s="3"/>
-      <c r="X217" s="3"/>
-      <c r="Y217" s="3"/>
-      <c r="Z217" s="3"/>
-      <c r="AA217" s="3"/>
-      <c r="AB217" s="3"/>
-      <c r="AC217" s="3"/>
-      <c r="AD217" s="3"/>
-      <c r="AE217" s="3"/>
-      <c r="AF217" s="3"/>
-      <c r="AG217" s="3"/>
-      <c r="AH217" s="3"/>
-      <c r="AI217" s="3"/>
-      <c r="AJ217" s="3"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3"/>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-      <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
-      <c r="R218" s="3"/>
-      <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
-      <c r="U218" s="3"/>
-      <c r="V218" s="3"/>
-      <c r="W218" s="3"/>
-      <c r="X218" s="3"/>
-      <c r="Y218" s="3"/>
-      <c r="Z218" s="3"/>
-      <c r="AA218" s="3"/>
-      <c r="AB218" s="3"/>
-      <c r="AC218" s="3"/>
-      <c r="AD218" s="3"/>
-      <c r="AE218" s="3"/>
-      <c r="AF218" s="3"/>
-      <c r="AG218" s="3"/>
-      <c r="AH218" s="3"/>
-      <c r="AI218" s="3"/>
-      <c r="AJ218" s="3"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
-      <c r="R219" s="3"/>
-      <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
-      <c r="U219" s="3"/>
-      <c r="V219" s="3"/>
-      <c r="W219" s="3"/>
-      <c r="X219" s="3"/>
-      <c r="Y219" s="3"/>
-      <c r="Z219" s="3"/>
-      <c r="AA219" s="3"/>
-      <c r="AB219" s="3"/>
-      <c r="AC219" s="3"/>
-      <c r="AD219" s="3"/>
-      <c r="AE219" s="3"/>
-      <c r="AF219" s="3"/>
-      <c r="AG219" s="3"/>
-      <c r="AH219" s="3"/>
-      <c r="AI219" s="3"/>
-      <c r="AJ219" s="3"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3"/>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
-      <c r="R220" s="3"/>
-      <c r="S220" s="3"/>
-      <c r="T220" s="3"/>
-      <c r="U220" s="3"/>
-      <c r="V220" s="3"/>
-      <c r="W220" s="3"/>
-      <c r="X220" s="3"/>
-      <c r="Y220" s="3"/>
-      <c r="Z220" s="3"/>
-      <c r="AA220" s="3"/>
-      <c r="AB220" s="3"/>
-      <c r="AC220" s="3"/>
-      <c r="AD220" s="3"/>
-      <c r="AE220" s="3"/>
-      <c r="AF220" s="3"/>
-      <c r="AG220" s="3"/>
-      <c r="AH220" s="3"/>
-      <c r="AI220" s="3"/>
-      <c r="AJ220" s="3"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3"/>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
-      <c r="R221" s="3"/>
-      <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
-      <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
-      <c r="W221" s="3"/>
-      <c r="X221" s="3"/>
-      <c r="Y221" s="3"/>
-      <c r="Z221" s="3"/>
-      <c r="AA221" s="3"/>
-      <c r="AB221" s="3"/>
-      <c r="AC221" s="3"/>
-      <c r="AD221" s="3"/>
-      <c r="AE221" s="3"/>
-      <c r="AF221" s="3"/>
-      <c r="AG221" s="3"/>
-      <c r="AH221" s="3"/>
-      <c r="AI221" s="3"/>
-      <c r="AJ221" s="3"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3"/>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
-      <c r="R222" s="3"/>
-      <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
-      <c r="U222" s="3"/>
-      <c r="V222" s="3"/>
-      <c r="W222" s="3"/>
-      <c r="X222" s="3"/>
-      <c r="Y222" s="3"/>
-      <c r="Z222" s="3"/>
-      <c r="AA222" s="3"/>
-      <c r="AB222" s="3"/>
-      <c r="AC222" s="3"/>
-      <c r="AD222" s="3"/>
-      <c r="AE222" s="3"/>
-      <c r="AF222" s="3"/>
-      <c r="AG222" s="3"/>
-      <c r="AH222" s="3"/>
-      <c r="AI222" s="3"/>
-      <c r="AJ222" s="3"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
-      <c r="P223" s="3"/>
-      <c r="Q223" s="3"/>
-      <c r="R223" s="3"/>
-      <c r="S223" s="3"/>
-      <c r="T223" s="3"/>
-      <c r="U223" s="3"/>
-      <c r="V223" s="3"/>
-      <c r="W223" s="3"/>
-      <c r="X223" s="3"/>
-      <c r="Y223" s="3"/>
-      <c r="Z223" s="3"/>
-      <c r="AA223" s="3"/>
-      <c r="AB223" s="3"/>
-      <c r="AC223" s="3"/>
-      <c r="AD223" s="3"/>
-      <c r="AE223" s="3"/>
-      <c r="AF223" s="3"/>
-      <c r="AG223" s="3"/>
-      <c r="AH223" s="3"/>
-      <c r="AI223" s="3"/>
-      <c r="AJ223" s="3"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3"/>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
-      <c r="P224" s="3"/>
-      <c r="Q224" s="3"/>
-      <c r="R224" s="3"/>
-      <c r="S224" s="3"/>
-      <c r="T224" s="3"/>
-      <c r="U224" s="3"/>
-      <c r="V224" s="3"/>
-      <c r="W224" s="3"/>
-      <c r="X224" s="3"/>
-      <c r="Y224" s="3"/>
-      <c r="Z224" s="3"/>
-      <c r="AA224" s="3"/>
-      <c r="AB224" s="3"/>
-      <c r="AC224" s="3"/>
-      <c r="AD224" s="3"/>
-      <c r="AE224" s="3"/>
-      <c r="AF224" s="3"/>
-      <c r="AG224" s="3"/>
-      <c r="AH224" s="3"/>
-      <c r="AI224" s="3"/>
-      <c r="AJ224" s="3"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
-      <c r="P225" s="3"/>
-      <c r="Q225" s="3"/>
-      <c r="R225" s="3"/>
-      <c r="S225" s="3"/>
-      <c r="T225" s="3"/>
-      <c r="U225" s="3"/>
-      <c r="V225" s="3"/>
-      <c r="W225" s="3"/>
-      <c r="X225" s="3"/>
-      <c r="Y225" s="3"/>
-      <c r="Z225" s="3"/>
-      <c r="AA225" s="3"/>
-      <c r="AB225" s="3"/>
-      <c r="AC225" s="3"/>
-      <c r="AD225" s="3"/>
-      <c r="AE225" s="3"/>
-      <c r="AF225" s="3"/>
-      <c r="AG225" s="3"/>
-      <c r="AH225" s="3"/>
-      <c r="AI225" s="3"/>
-      <c r="AJ225" s="3"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
-      <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
-      <c r="M226" s="3"/>
-      <c r="N226" s="3"/>
-      <c r="O226" s="3"/>
-      <c r="P226" s="3"/>
-      <c r="Q226" s="3"/>
-      <c r="R226" s="3"/>
-      <c r="S226" s="3"/>
-      <c r="T226" s="3"/>
-      <c r="U226" s="3"/>
-      <c r="V226" s="3"/>
-      <c r="W226" s="3"/>
-      <c r="X226" s="3"/>
-      <c r="Y226" s="3"/>
-      <c r="Z226" s="3"/>
-      <c r="AA226" s="3"/>
-      <c r="AB226" s="3"/>
-      <c r="AC226" s="3"/>
-      <c r="AD226" s="3"/>
-      <c r="AE226" s="3"/>
-      <c r="AF226" s="3"/>
-      <c r="AG226" s="3"/>
-      <c r="AH226" s="3"/>
-      <c r="AI226" s="3"/>
-      <c r="AJ226" s="3"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
-      <c r="K227" s="3"/>
-      <c r="L227" s="3"/>
-      <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
-      <c r="O227" s="3"/>
-      <c r="P227" s="3"/>
-      <c r="Q227" s="3"/>
-      <c r="R227" s="3"/>
-      <c r="S227" s="3"/>
-      <c r="T227" s="3"/>
-      <c r="U227" s="3"/>
-      <c r="V227" s="3"/>
-      <c r="W227" s="3"/>
-      <c r="X227" s="3"/>
-      <c r="Y227" s="3"/>
-      <c r="Z227" s="3"/>
-      <c r="AA227" s="3"/>
-      <c r="AB227" s="3"/>
-      <c r="AC227" s="3"/>
-      <c r="AD227" s="3"/>
-      <c r="AE227" s="3"/>
-      <c r="AF227" s="3"/>
-      <c r="AG227" s="3"/>
-      <c r="AH227" s="3"/>
-      <c r="AI227" s="3"/>
-      <c r="AJ227" s="3"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="O228" s="3"/>
-      <c r="P228" s="3"/>
-      <c r="Q228" s="3"/>
-      <c r="R228" s="3"/>
-      <c r="S228" s="3"/>
-      <c r="T228" s="3"/>
-      <c r="U228" s="3"/>
-      <c r="V228" s="3"/>
-      <c r="W228" s="3"/>
-      <c r="X228" s="3"/>
-      <c r="Y228" s="3"/>
-      <c r="Z228" s="3"/>
-      <c r="AA228" s="3"/>
-      <c r="AB228" s="3"/>
-      <c r="AC228" s="3"/>
-      <c r="AD228" s="3"/>
-      <c r="AE228" s="3"/>
-      <c r="AF228" s="3"/>
-      <c r="AG228" s="3"/>
-      <c r="AH228" s="3"/>
-      <c r="AI228" s="3"/>
-      <c r="AJ228" s="3"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
-      <c r="L229" s="3"/>
-      <c r="M229" s="3"/>
-      <c r="N229" s="3"/>
-      <c r="O229" s="3"/>
-      <c r="P229" s="3"/>
-      <c r="Q229" s="3"/>
-      <c r="R229" s="3"/>
-      <c r="S229" s="3"/>
-      <c r="T229" s="3"/>
-      <c r="U229" s="3"/>
-      <c r="V229" s="3"/>
-      <c r="W229" s="3"/>
-      <c r="X229" s="3"/>
-      <c r="Y229" s="3"/>
-      <c r="Z229" s="3"/>
-      <c r="AA229" s="3"/>
-      <c r="AB229" s="3"/>
-      <c r="AC229" s="3"/>
-      <c r="AD229" s="3"/>
-      <c r="AE229" s="3"/>
-      <c r="AF229" s="3"/>
-      <c r="AG229" s="3"/>
-      <c r="AH229" s="3"/>
-      <c r="AI229" s="3"/>
-      <c r="AJ229" s="3"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
-      <c r="P230" s="3"/>
-      <c r="Q230" s="3"/>
-      <c r="R230" s="3"/>
-      <c r="S230" s="3"/>
-      <c r="T230" s="3"/>
-      <c r="U230" s="3"/>
-      <c r="V230" s="3"/>
-      <c r="W230" s="3"/>
-      <c r="X230" s="3"/>
-      <c r="Y230" s="3"/>
-      <c r="Z230" s="3"/>
-      <c r="AA230" s="3"/>
-      <c r="AB230" s="3"/>
-      <c r="AC230" s="3"/>
-      <c r="AD230" s="3"/>
-      <c r="AE230" s="3"/>
-      <c r="AF230" s="3"/>
-      <c r="AG230" s="3"/>
-      <c r="AH230" s="3"/>
-      <c r="AI230" s="3"/>
-      <c r="AJ230" s="3"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
-      <c r="P231" s="3"/>
-      <c r="Q231" s="3"/>
-      <c r="R231" s="3"/>
-      <c r="S231" s="3"/>
-      <c r="T231" s="3"/>
-      <c r="U231" s="3"/>
-      <c r="V231" s="3"/>
-      <c r="W231" s="3"/>
-      <c r="X231" s="3"/>
-      <c r="Y231" s="3"/>
-      <c r="Z231" s="3"/>
-      <c r="AA231" s="3"/>
-      <c r="AB231" s="3"/>
-      <c r="AC231" s="3"/>
-      <c r="AD231" s="3"/>
-      <c r="AE231" s="3"/>
-      <c r="AF231" s="3"/>
-      <c r="AG231" s="3"/>
-      <c r="AH231" s="3"/>
-      <c r="AI231" s="3"/>
-      <c r="AJ231" s="3"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
-      <c r="P232" s="3"/>
-      <c r="Q232" s="3"/>
-      <c r="R232" s="3"/>
-      <c r="S232" s="3"/>
-      <c r="T232" s="3"/>
-      <c r="U232" s="3"/>
-      <c r="V232" s="3"/>
-      <c r="W232" s="3"/>
-      <c r="X232" s="3"/>
-      <c r="Y232" s="3"/>
-      <c r="Z232" s="3"/>
-      <c r="AA232" s="3"/>
-      <c r="AB232" s="3"/>
-      <c r="AC232" s="3"/>
-      <c r="AD232" s="3"/>
-      <c r="AE232" s="3"/>
-      <c r="AF232" s="3"/>
-      <c r="AG232" s="3"/>
-      <c r="AH232" s="3"/>
-      <c r="AI232" s="3"/>
-      <c r="AJ232" s="3"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="15"/>
-      <c r="B233" s="15"/>
-      <c r="C233" s="15"/>
-      <c r="D233" s="15"/>
-      <c r="E233" s="15"/>
-      <c r="F233" s="15"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
-      <c r="O233" s="3"/>
-      <c r="P233" s="3"/>
-      <c r="Q233" s="3"/>
-      <c r="R233" s="3"/>
-      <c r="S233" s="3"/>
-      <c r="T233" s="3"/>
-      <c r="U233" s="3"/>
-      <c r="V233" s="3"/>
-      <c r="W233" s="3"/>
-      <c r="X233" s="3"/>
-      <c r="Y233" s="3"/>
-      <c r="Z233" s="3"/>
-      <c r="AA233" s="3"/>
-      <c r="AB233" s="3"/>
-      <c r="AC233" s="3"/>
-      <c r="AD233" s="3"/>
-      <c r="AE233" s="3"/>
-      <c r="AF233" s="3"/>
-      <c r="AG233" s="3"/>
-      <c r="AH233" s="3"/>
-      <c r="AI233" s="3"/>
-      <c r="AJ233" s="3"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="15"/>
-      <c r="B234" s="15"/>
-      <c r="C234" s="15"/>
-      <c r="D234" s="15"/>
-      <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
-      <c r="Q234" s="3"/>
-      <c r="R234" s="3"/>
-      <c r="S234" s="3"/>
-      <c r="T234" s="3"/>
-      <c r="U234" s="3"/>
-      <c r="V234" s="3"/>
-      <c r="W234" s="3"/>
-      <c r="X234" s="3"/>
-      <c r="Y234" s="3"/>
-      <c r="Z234" s="3"/>
-      <c r="AA234" s="3"/>
-      <c r="AB234" s="3"/>
-      <c r="AC234" s="3"/>
-      <c r="AD234" s="3"/>
-      <c r="AE234" s="3"/>
-      <c r="AF234" s="3"/>
-      <c r="AG234" s="3"/>
-      <c r="AH234" s="3"/>
-      <c r="AI234" s="3"/>
-      <c r="AJ234" s="3"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="15"/>
-      <c r="B235" s="15"/>
-      <c r="C235" s="15"/>
-      <c r="D235" s="15"/>
-      <c r="E235" s="15"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-      <c r="Q235" s="3"/>
-      <c r="R235" s="3"/>
-      <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
-      <c r="U235" s="3"/>
-      <c r="V235" s="3"/>
-      <c r="W235" s="3"/>
-      <c r="X235" s="3"/>
-      <c r="Y235" s="3"/>
-      <c r="Z235" s="3"/>
-      <c r="AA235" s="3"/>
-      <c r="AB235" s="3"/>
-      <c r="AC235" s="3"/>
-      <c r="AD235" s="3"/>
-      <c r="AE235" s="3"/>
-      <c r="AF235" s="3"/>
-      <c r="AG235" s="3"/>
-      <c r="AH235" s="3"/>
-      <c r="AI235" s="3"/>
-      <c r="AJ235" s="3"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="17"/>
-      <c r="B236" s="17"/>
-      <c r="C236" s="17"/>
-      <c r="D236" s="17"/>
-      <c r="E236" s="17"/>
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="17"/>
-      <c r="I236" s="17"/>
-      <c r="J236" s="17"/>
-      <c r="K236" s="17"/>
-      <c r="L236" s="3"/>
-      <c r="M236" s="3"/>
-      <c r="N236" s="3"/>
-      <c r="O236" s="3"/>
-      <c r="P236" s="3"/>
-      <c r="Q236" s="3"/>
-      <c r="R236" s="3"/>
-      <c r="S236" s="3"/>
-      <c r="T236" s="3"/>
-      <c r="U236" s="3"/>
-      <c r="V236" s="3"/>
-      <c r="W236" s="3"/>
-      <c r="X236" s="3"/>
-      <c r="Y236" s="3"/>
-      <c r="Z236" s="3"/>
-      <c r="AA236" s="3"/>
-      <c r="AB236" s="3"/>
-      <c r="AC236" s="3"/>
-      <c r="AD236" s="3"/>
-      <c r="AE236" s="3"/>
-      <c r="AF236" s="3"/>
-      <c r="AG236" s="3"/>
-      <c r="AH236" s="3"/>
-      <c r="AI236" s="3"/>
-      <c r="AJ236" s="3"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="17"/>
-      <c r="B237" s="17"/>
-      <c r="C237" s="17"/>
-      <c r="D237" s="17"/>
-      <c r="E237" s="17"/>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="17"/>
-      <c r="K237" s="17"/>
-      <c r="L237" s="3"/>
-      <c r="M237" s="3"/>
-      <c r="N237" s="3"/>
-      <c r="O237" s="3"/>
-      <c r="P237" s="3"/>
-      <c r="Q237" s="3"/>
-      <c r="R237" s="3"/>
-      <c r="S237" s="3"/>
-      <c r="T237" s="3"/>
-      <c r="U237" s="3"/>
-      <c r="V237" s="3"/>
-      <c r="W237" s="3"/>
-      <c r="X237" s="3"/>
-      <c r="Y237" s="3"/>
-      <c r="Z237" s="3"/>
-      <c r="AA237" s="3"/>
-      <c r="AB237" s="3"/>
-      <c r="AC237" s="3"/>
-      <c r="AD237" s="3"/>
-      <c r="AE237" s="3"/>
-      <c r="AF237" s="3"/>
-      <c r="AG237" s="3"/>
-      <c r="AH237" s="3"/>
-      <c r="AI237" s="3"/>
-      <c r="AJ237" s="3"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="17"/>
-      <c r="B238" s="17"/>
-      <c r="C238" s="17"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="17"/>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="17"/>
-      <c r="J238" s="17"/>
-      <c r="K238" s="17"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="O238" s="3"/>
-      <c r="P238" s="3"/>
-      <c r="Q238" s="3"/>
-      <c r="R238" s="3"/>
-      <c r="S238" s="3"/>
-      <c r="T238" s="3"/>
-      <c r="U238" s="3"/>
-      <c r="V238" s="3"/>
-      <c r="W238" s="3"/>
-      <c r="X238" s="3"/>
-      <c r="Y238" s="3"/>
-      <c r="Z238" s="3"/>
-      <c r="AA238" s="3"/>
-      <c r="AB238" s="3"/>
-      <c r="AC238" s="3"/>
-      <c r="AD238" s="3"/>
-      <c r="AE238" s="3"/>
-      <c r="AF238" s="3"/>
-      <c r="AG238" s="3"/>
-      <c r="AH238" s="3"/>
-      <c r="AI238" s="3"/>
-      <c r="AJ238" s="3"/>
-    </row>
+    </row>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
     <row r="239" ht="15.75" customHeight="1"/>
     <row r="240" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
@@ -10705,20 +6763,20 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2">
-      <formula1>Sheet1!$P$2:$P$38</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
+      <formula1>"70,20,10"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2">
-      <formula1>Sheet1!$N$2:$N$38</formula1>
+      <formula1>Master!$A$1:$A$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2">
+      <formula1>Master!$C$1:$C$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
+      <formula1>"Soft Competency,Technical Competency"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
       <formula1>"Assessment Center,Superior Rating,Self Assessment,Peer Review,360 Degree Feedback,KPI Review,Management Review,Project Based Evaluation"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
-      <formula1>"70,20,10,Input Manual"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
-      <formula1>"Soft Competency,Technical Competency"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10732,4 +6790,1317 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="26.0"/>
+    <col customWidth="1" min="2" max="2" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="42.88"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.0" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="15.0" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="15.0" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="15.0" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="15.0" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="15.0" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="15.0" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="15.0" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="15.0" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="15.0" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" ht="15.0" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="15.0" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="15.0" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="15.0" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="15.0" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" ht="15.0" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" ht="15.0" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="15.0" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" ht="15.0" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" ht="15.0" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" ht="15.0" customHeight="1">
+      <c r="A25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" ht="15.0" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" ht="15.0" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>